--- a/Soen287_A2_Mark_Schema.xlsx
+++ b/Soen287_A2_Mark_Schema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minaawadalla/Desktop/Concordia/SOEN 287/Assignment/A2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minaawadalla/Desktop/Concordia/SOEN 287 - Pope Shenouda /Assignment/A2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04C02D9-04B3-A94C-9AFB-EAC741BE3617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0D8ED8-290F-C341-B54F-E02C3B6815A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Max</t>
   </si>
@@ -39,93 +39,125 @@
     <t>Final Assignment Grade</t>
   </si>
   <si>
-    <t>Feedback Sheet for SOEN 287/Summer 2020</t>
-  </si>
-  <si>
-    <t>scores</t>
-  </si>
-  <si>
-    <t>max scores</t>
-  </si>
-  <si>
-    <t>Assignment #2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSS Responsive page</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>User Interface Quality</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Function</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>your store should be easy to use and as good as possible</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.For example, select quality:2, then refresh, the quality should still be 2;
-2.lose 5 points for one page</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Detail</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <t>Refresh Page</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The website needs to be hosted online.</t>
+  </si>
+  <si>
+    <t>Online Hosting</t>
+  </si>
+  <si>
+    <t>User Interface</t>
+  </si>
+  <si>
+    <t>Javascript
+Backstory pages and Sign In/Sign Up pages are not parts of the WP2, and functions required in WP3 will not be checked here.</t>
+  </si>
+  <si>
+    <t>4. On the Cart page (P4), by changing the quantity for each item, the whole summary table, including the number of items, QST, GST, and Total Amount, must be updated dynamically.</t>
+  </si>
+  <si>
+    <t>3. On P3, when the user changes the properties of the product (e.g., quantity, color, size, ...), the price must be updated accordingly without refreshing the page. For instance, if the price is 10$ per unit and the user changes the quantity to 2, the price must be changed to 20$ immediately.</t>
+  </si>
+  <si>
+    <t>2. On P3, the "More Description" button must work as described in the handout (PDF page 6).</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>The store should generally be easy to use, and the quality of the user interface be the same as or higher than the average of the class to get the full mark of this item.</t>
+  </si>
+  <si>
+    <t>All
+(Do not change)</t>
+  </si>
+  <si>
+    <t>CSS Responsive Design
+The pages must be responsive to the desktop, tablet, and mobile views. On the smaller screens, nothing must be missing or overlapped, text must be easily readable, buttons must be easy to click, and horizontal scrolls should be avoided (except for tables).</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>1. Links on P2 must be functional and redirect the user to the product page. (5 points)</t>
+  </si>
+  <si>
+    <t>Achieved Scores</t>
+  </si>
+  <si>
+    <t>Max Possible Score</t>
+  </si>
+  <si>
+    <t>On the Product page (P3), the properties chosen by the user (e.g., quantity, color, size, ...) must remain constant in the case of refreshing or re-opening the page and do not return to their default value.</t>
+  </si>
+  <si>
+    <t>Member #</t>
   </si>
   <si>
     <t>Student Name</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXXXXX</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>p2 - fruit;
-p3 - apple detail;
-p4 - total</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.in mobile/tablet;
-2.Only buttons and click event will be checked;
-3.You will lose marks if the buttons are too small to click in mobile phone/tablet;
-4.lose three points for one page.</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>This  column shows an example marking;it is not finalized</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Refresh Page</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.All the buttons in P2/P3/P4;
-2.every button should be functional good;
-3.Only the buttons in the project requirement will be checked;
-4.QST/Total in P4 is regarded as a button;
-5.Back Store and Login/Sign Up are not required in wp2;Functions required in wp3 will not be checked;
-5.lose eight points for one button.
-</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page - Buttons</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>#1</t>
+  </si>
+  <si>
+    <t>#2</t>
+  </si>
+  <si>
+    <t>#3</t>
+  </si>
+  <si>
+    <t>#4</t>
+  </si>
+  <si>
+    <t>#5</t>
+  </si>
+  <si>
+    <t>#6</t>
+  </si>
+  <si>
+    <t>#7</t>
+  </si>
+  <si>
+    <t>Member #5</t>
+  </si>
+  <si>
+    <t>Member #1</t>
+  </si>
+  <si>
+    <t>Member #7</t>
+  </si>
+  <si>
+    <t>Member #6</t>
+  </si>
+  <si>
+    <t>Member #4</t>
+  </si>
+  <si>
+    <t>Member #3</t>
+  </si>
+  <si>
+    <t>Member #2</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Member(s) Assigned to This Item</t>
   </si>
   <si>
     <t>Mina Awadalla</t>
@@ -147,25 +179,13 @@
   </si>
   <si>
     <t>Ishai Cohen</t>
-  </si>
-  <si>
-    <t>p4</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
-    <t>p3</t>
-  </si>
-  <si>
-    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,21 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Calibri"/>
       <family val="3"/>
@@ -241,6 +246,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -251,19 +287,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,8 +297,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC2D8F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -310,12 +345,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -325,60 +421,102 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -398,15 +536,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>1412876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2276476</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -421,8 +559,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="127000"/>
-          <a:ext cx="3746500" cy="1930400"/>
+          <a:off x="10052051" y="3108326"/>
+          <a:ext cx="3711574" cy="863600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -457,15 +595,6 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Hey Class,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -479,11 +608,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Fill in the Form below and replace S1/S2... with your  team members' name</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>.</a:t>
+            <a:t> Fill in the following table and include this Excel sheet in your project.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -491,6 +616,167 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="17581418" cy="3363686"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09056E34-7B1D-43EB-96C9-E1F85BABF1A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="17581418" cy="3363686"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t>SOEN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0"/>
+            <a:t> 287 | Fall 2021</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0"/>
+            <a:t>Assignment #2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t>Please fill out this file by replacing </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ONLY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RED</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t> texts and include the excel sheet in your project file.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t>Do not change anything other than red texts,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1" baseline="0"/>
+            <a:t> and d</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="1"/>
+            <a:t>o not submit a separate file for task allocations.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1800" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0"/>
+            <a:t>As for the task allocations (last column), instead</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0" baseline="0"/>
+            <a:t> of member names, put member numbers. Example: #1, #4, #6.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" b="0"/>
+            <a:t>If different members implemented different pages for one task, also indicate the page name. For instance: #1: Apple, #2: Orange, ...</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+            <a:t>Unallocated tasks will be allocated to the whole team.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-GB" sz="1800" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1800" baseline="0"/>
+            <a:t>Make sure that the submitted excel sheet has the approval of all members.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -815,52 +1101,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="75" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" style="1" customWidth="1"/>
-    <col min="4" max="10" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="23.83203125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="51.5" customWidth="1"/>
+    <col min="12" max="12" width="27.5" customWidth="1"/>
     <col min="13" max="13" width="20.83203125" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" customWidth="1"/>
     <col min="15" max="15" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-    </row>
-    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+    </row>
+    <row r="2" spans="1:10" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
@@ -872,260 +1160,658 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:15" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="19" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="I20"/>
+      <c r="J20"/>
+    </row>
+    <row r="21" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32">
+        <v>40062336</v>
+      </c>
+      <c r="E21" s="32"/>
+      <c r="I21"/>
+      <c r="J21"/>
+    </row>
+    <row r="22" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="34"/>
+      <c r="D22" s="33">
+        <v>40190551</v>
+      </c>
+      <c r="E22" s="34"/>
+      <c r="I22"/>
+      <c r="J22"/>
+    </row>
+    <row r="23" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="33">
+        <v>40190550</v>
+      </c>
+      <c r="E23" s="34"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="33">
+        <v>40188881</v>
+      </c>
+      <c r="E24" s="34"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="33">
+        <v>40113826</v>
+      </c>
+      <c r="E25" s="34"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="34"/>
+      <c r="D26" s="33">
+        <v>40135132</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:11" ht="35" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="34"/>
+      <c r="D27" s="33">
+        <v>40188880</v>
+      </c>
+      <c r="E27" s="34"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="29" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="5">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="61.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5">
+        <v>10</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="127.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C33" s="5">
+        <v>15</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>20</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" ht="65" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="27"/>
+      <c r="B37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="5">
+        <v>4</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="14"/>
+    </row>
+    <row r="38" spans="1:15" ht="95.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="5">
+        <v>20</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+    </row>
+    <row r="39" spans="1:15" ht="86.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5">
+        <v>10</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+    </row>
+    <row r="40" spans="1:15" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5">
+        <v>10</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+    </row>
+    <row r="41" spans="1:15" ht="34.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="11">
+        <f>SUMIF(D31:D40, "&lt;&gt;NA")</f>
         <v>0</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="171" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="20">
-        <v>40</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="20">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="M9" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="E41" s="11">
+        <f>SUMIF(E31:E40, "&lt;&gt;NA")</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" ref="F41:J41" si="0">SUMIF(F31:F40, "&lt;&gt;NA")</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="11">
+        <f>SUMIF(I31:I40, "&lt;&gt;NA")</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="34.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="20">
-        <v>10</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="M10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="O10" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="20">
-        <v>10</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-    </row>
-    <row r="12" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="13">
-        <f>SUMIF(D8:D8, "&lt;&gt;N")</f>
+      <c r="B42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="11">
+        <f>SUMIF(D31:D40,"&lt;&gt;NA",C31:C40)</f>
         <v>0</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="13">
-        <f>SUMIF(D8:D8,"&lt;&gt;N",C8:C8)</f>
-        <v>40</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" ht="23" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="E42" s="11">
+        <f>SUMIF(E31:E40,"&lt;&gt;NA",C31:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="11">
+        <f>SUMIF(F31:F40,"&lt;&gt;NA",C31:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="11">
+        <f>SUMIF(G31:G40,"&lt;&gt;NA",C31:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="11">
+        <f>SUMIF(H31:H40,"&lt;&gt;NA",C31:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="11">
+        <f>SUMIF(I31:I40,"&lt;&gt;NA",C31:C40)</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="11">
+        <f>SUMIF(J31:J40,"&lt;&gt;NA",C31:C40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="55.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="8">
-        <f>SUM(B12:B12)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="9">
-        <v>100</v>
-      </c>
-      <c r="D14" s="15">
-        <f>D12/D13</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="D16" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D17" s="16"/>
+      <c r="B43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="19" t="e">
+        <f t="shared" ref="D43:H43" si="1">D41/D42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F43" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G43" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H43" s="19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I43" s="19" t="e">
+        <f>I41/I42</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J43" s="19" t="e">
+        <f>J41/J42</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatRows="0"/>
-  <mergeCells count="2">
+  <mergeCells count="20">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A37"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
